--- a/Shiny-PAC/PAC_config.xlsx
+++ b/Shiny-PAC/PAC_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/sandlin_cole_epa_gov/Documents/Profile/Documents/R/Water_Treatment_Models_test/Shiny-PAC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/sandlin_cole_epa_gov/Documents/Profile/Documents/GitHub/Water_Treatment_Models/Shiny-PAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="302" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29DCF02-F9AF-49D5-955E-D3D9BF09F505}"/>
   <bookViews>
-    <workbookView xWindow="-18060" yWindow="1860" windowWidth="14400" windowHeight="10545" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactor" sheetId="4" r:id="rId1"/>
@@ -244,10 +244,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C35B5A-4C99-4FFF-A009-4B0244077301}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Shiny-PAC/PAC_config.xlsx
+++ b/Shiny-PAC/PAC_config.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/sandlin_cole_epa_gov/Documents/Profile/Documents/GitHub/Water_Treatment_Models/Shiny-PAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29DCF02-F9AF-49D5-955E-D3D9BF09F505}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC49C721-43B0-4D2F-A346-4693F12FBE59}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Contactor" sheetId="4" r:id="rId1"/>
-    <sheet name="PAC" sheetId="10" r:id="rId2"/>
+    <sheet name="PAC Characteristics" sheetId="10" r:id="rId2"/>
     <sheet name="Compounds" sheetId="1" r:id="rId3"/>
     <sheet name="name" sheetId="11" r:id="rId4"/>
   </sheets>
@@ -244,6 +244,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
